--- a/biology/Botanique/Merremia/Merremia.xlsx
+++ b/biology/Botanique/Merremia/Merremia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merremia est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces, variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (13 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 septembre 2017) :
 Merremia aegyptia (L.) Urb.
 Merremia ampelophylla Hall. fil.
 Merremia aniseiifolia Ooststr.
@@ -615,7 +629,7 @@
 Merremia wurdackii D.F. Austin &amp; G.W. Staples
 Merremia xanthophylla Hall. fil.
 Merremia yunnanensis (Courchet &amp; Gagnep.) R. C. Fang
-Selon GRIN            (13 septembre 2017)[3] :
+Selon GRIN            (13 septembre 2017) :
 Merremia discoidesperma (Donn. Sm.) OʼDonell
 Merremia emarginata (Burm. f.) Hallier f.
 Merremia gemella (Burm. f.) Hallier f.
@@ -624,7 +638,7 @@
 Merremia palmeri (S. Watson) Hallier f.
 Merremia pterygocaulos (Choisy) Hallier f.
 Merremia sibirica (L.) Hallier f.
-Selon ITIS      (13 septembre 2017)[4] :
+Selon ITIS      (13 septembre 2017) :
 Merremia aegyptia (L.) Urb.
 Merremia cissoides (Lam.) Hallier f.
 Merremia dissecta (Jacq.) Hallier f.
@@ -634,7 +648,7 @@
 Merremia quinquefolia (L.) Hallier f.
 Merremia tuberosa (L.) Rendle
 Merremia umbellata (L.) Hallier f.
-Selon NCBI  (13 septembre 2017)[5] :
+Selon NCBI  (13 septembre 2017) :
 Merremia aegyptia
 Merremia ampelophylla
 Merremia aturensis
@@ -694,7 +708,7 @@
 Merremia verruculosa
 Merremia vitifolia
 Merremia xanthophylla
-Selon The Plant List            (13 septembre 2017)[6] :
+Selon The Plant List            (13 septembre 2017) :
 Merremia aegyptia (L.) Urb.
 Merremia ampelophylla Hallier f.
 Merremia aturensis (Kunth) Hallier f.
@@ -757,7 +771,7 @@
 Merremia weberbaueri Ooststr.
 Merremia wurdackii D.F. Austin &amp; Staples
 Merremia yunnanensis (Courchet &amp; Gagnep.) R.C. Fang
-Selon Tropicos                                           (13 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Merremia aegyptia (L.) Urb.
 Merremia alata Rendle
 Merremia alatipes Dammer
